--- a/mapping/metadata4Ing_RXNO.xlsx
+++ b/mapping/metadata4Ing_RXNO.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>metadata4Ing_IRI</t>
-  </si>
-  <si>
-    <t>metadata4Ing_DESC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>metadata4ing_IRI</t>
+  </si>
+  <si>
+    <t>metadata4ing_DESC</t>
   </si>
   <si>
     <t>RXNO_IRI</t>
@@ -28,10 +28,16 @@
     <t>RXNO_DESC</t>
   </si>
   <si>
+    <t>RXNO_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
   </si>
   <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/BFO_0000015'}</t>
+  </si>
+  <si>
+    <t>['p is a process if p is an occurrent that has temporal proper parts and for some time t, p specifically depends on some material entity at t. [BFO]', locstr("Process, i.e., a physical entity with a temporal evolution that 'has a meaning for the ontologist'", 'en')]</t>
   </si>
 </sst>
 </file>
@@ -402,13 +408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,22 +427,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
